--- a/data/Characteristics/MODE/MODE_Economics.xlsx
+++ b/data/Characteristics/MODE/MODE_Economics.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\хех\hse\диплом\docs\data\Characteristics\MODE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\ember-interface-try\data\Characteristics\MODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71A05D8-6AB9-4268-9206-45A7B4A13FA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9030F6B-94B6-4DF3-A7FB-EADCCBA4732E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3540" yWindow="3870" windowWidth="19170" windowHeight="10650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1365" yWindow="1170" windowWidth="21675" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>Маркер</t>
   </si>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -414,7 +414,7 @@
   <dimension ref="A1:C20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -529,8 +529,8 @@
       <c r="B10">
         <v>5.5E-2</v>
       </c>
-      <c r="C10" t="s">
-        <v>22</v>
+      <c r="C10">
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
@@ -584,8 +584,8 @@
       <c r="B15">
         <v>3.1E-2</v>
       </c>
-      <c r="C15" t="s">
-        <v>22</v>
+      <c r="C15">
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
